--- a/src/common/templates/13.Formation.xlsx
+++ b/src/common/templates/13.Formation.xlsx
@@ -8,13 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A10BFD-607A-4D7E-95DB-29CDA4AC4D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B0DA84-B3E7-4E36-A6ED-BA8011265085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="570" windowWidth="19395" windowHeight="14940" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
+    <workbookView xWindow="-20055" yWindow="120" windowWidth="17340" windowHeight="15480" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Formation) 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="approver">'화성(Formation) 작업 일지'!$L$5</definedName>
+    <definedName name="cleanCheck">'화성(Formation) 작업 일지'!$G$64</definedName>
+    <definedName name="equipmentCheckResult">'화성(Formation) 작업 일지'!$C$61</definedName>
+    <definedName name="equipmentIssue">'화성(Formation) 작업 일지'!$K$61</definedName>
+    <definedName name="jigNumber">'화성(Formation) 작업 일지'!$G$61</definedName>
+    <definedName name="line">'화성(Formation) 작업 일지'!$C$9</definedName>
+    <definedName name="manufactureDate">'화성(Formation) 작업 일지'!$C$7</definedName>
+    <definedName name="plant">'화성(Formation) 작업 일지'!$G$9</definedName>
+    <definedName name="productionId">'화성(Formation) 작업 일지'!$G$7</definedName>
+    <definedName name="remark">'화성(Formation) 작업 일지'!$A$67</definedName>
+    <definedName name="reviewer">'화성(Formation) 작업 일지'!$K$5</definedName>
+    <definedName name="safety">'화성(Formation) 작업 일지'!$K$64</definedName>
+    <definedName name="shift">'화성(Formation) 작업 일지'!$K$9</definedName>
+    <definedName name="tempHumi">'화성(Formation) 작업 일지'!$C$64</definedName>
+    <definedName name="worker">'화성(Formation) 작업 일지'!$K$7</definedName>
+    <definedName name="writer">'화성(Formation) 작업 일지'!$J$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>화성(Formation) 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -240,6 +258,14 @@
   </si>
   <si>
     <t>7. 비고 / 특이사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 호기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -478,6 +504,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -487,17 +671,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -509,12 +699,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,49 +732,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -656,7 +843,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,1144 +1250,1164 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="9" style="56"/>
+    <col min="10" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="19"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="72"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="74"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="72"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="76"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="78"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="68"/>
+      <c r="K39" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="72"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="29"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="74"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="31"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="72"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="76"/>
+    </row>
+    <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="78"/>
+    </row>
+    <row r="45" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="15" t="s">
+      <c r="F50" s="23"/>
+      <c r="G50" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17" t="s">
+      <c r="H50" s="19"/>
+      <c r="I50" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="15" t="s">
+      <c r="J50" s="23"/>
+      <c r="K50" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="16"/>
+      <c r="L50" s="19"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="21"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="20"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
       <c r="K51" s="20"/>
       <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="39"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="40"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="41"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43" t="s">
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="19" t="s">
+      <c r="F54" s="42"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="19"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="38"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="39"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="40"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="15" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="38"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="39"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="41"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="8" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="8" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="25"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="8" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="8" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="49"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="50"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="53"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="52"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="53"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="53"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="50"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="52"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="53"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="50"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="53"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="53"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="55"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="162">
@@ -2219,6 +2489,14 @@
     <mergeCell ref="E39:F40"/>
     <mergeCell ref="G39:H40"/>
     <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
     <mergeCell ref="A35:B36"/>
     <mergeCell ref="C35:D36"/>
     <mergeCell ref="E35:F36"/>
@@ -2231,29 +2509,16 @@
     <mergeCell ref="G33:H34"/>
     <mergeCell ref="I33:J34"/>
     <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:J28"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:F32"/>
     <mergeCell ref="G31:H32"/>
     <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
     <mergeCell ref="K21:L22"/>
     <mergeCell ref="C23:D24"/>
     <mergeCell ref="E23:F24"/>
@@ -2270,6 +2535,11 @@
     <mergeCell ref="E21:F22"/>
     <mergeCell ref="G21:H22"/>
     <mergeCell ref="I21:J22"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="E17:F18"/>

--- a/src/common/templates/13.Formation.xlsx
+++ b/src/common/templates/13.Formation.xlsx
@@ -8,26 +8,114 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B0DA84-B3E7-4E36-A6ED-BA8011265085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD4A74-1C03-43AC-A326-D0F11B708CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20055" yWindow="120" windowWidth="17340" windowHeight="15480" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
+    <workbookView xWindow="-18000" yWindow="375" windowWidth="16275" windowHeight="14835" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Formation) 작업 일지" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="approver">'화성(Formation) 작업 일지'!$L$5</definedName>
+    <definedName name="cellNumberRange">'화성(Formation) 작업 일지'!$C$12</definedName>
+    <definedName name="cellPressDefectQuantity">'화성(Formation) 작업 일지'!$G$29</definedName>
+    <definedName name="cellPressDefectRate">'화성(Formation) 작업 일지'!$K$29</definedName>
+    <definedName name="cellPressDiscardQuantity">'화성(Formation) 작업 일지'!$I$29</definedName>
+    <definedName name="cellPressGoodQuantity">'화성(Formation) 작업 일지'!$E$29</definedName>
+    <definedName name="cellPressInputQuantity">'화성(Formation) 작업 일지'!$C$29</definedName>
     <definedName name="cleanCheck">'화성(Formation) 작업 일지'!$G$64</definedName>
+    <definedName name="degas1DefectQuantity">'화성(Formation) 작업 일지'!$G$17</definedName>
+    <definedName name="degas1DefectRate">'화성(Formation) 작업 일지'!$K$17</definedName>
+    <definedName name="degas1DiscardQuantity">'화성(Formation) 작업 일지'!$I$17</definedName>
+    <definedName name="degas1GoodQuantity">'화성(Formation) 작업 일지'!$E$17</definedName>
+    <definedName name="degas1InputQuantity">'화성(Formation) 작업 일지'!$C$17</definedName>
+    <definedName name="degas2DefectQuantity">'화성(Formation) 작업 일지'!$G$27</definedName>
+    <definedName name="degas2DefectRate">'화성(Formation) 작업 일지'!$K$27</definedName>
+    <definedName name="degas2DiscardQuantity">'화성(Formation) 작업 일지'!$I$27</definedName>
+    <definedName name="degas2GoodQuantity">'화성(Formation) 작업 일지'!$E$27</definedName>
+    <definedName name="degas2InputQuantity">'화성(Formation) 작업 일지'!$C$27</definedName>
+    <definedName name="degasVacuumDegree">'화성(Formation) 작업 일지'!$K$54</definedName>
+    <definedName name="degasVacuumHoldTime">'화성(Formation) 작업 일지'!$C$54</definedName>
+    <definedName name="degasVacuumSealingAdhesionTime">'화성(Formation) 작업 일지'!$G$54</definedName>
     <definedName name="equipmentCheckResult">'화성(Formation) 작업 일지'!$C$61</definedName>
     <definedName name="equipmentIssue">'화성(Formation) 작업 일지'!$K$61</definedName>
+    <definedName name="finalSealingDefectQuantity">'화성(Formation) 작업 일지'!$G$31</definedName>
+    <definedName name="finalSealingDefectRate">'화성(Formation) 작업 일지'!$K$31</definedName>
+    <definedName name="finalSealingDiscardQuantity">'화성(Formation) 작업 일지'!$I$31</definedName>
+    <definedName name="finalSealingGoodQuantity">'화성(Formation) 작업 일지'!$E$31</definedName>
+    <definedName name="finalSealingInputQuantity">'화성(Formation) 작업 일지'!$C$31</definedName>
     <definedName name="jigNumber">'화성(Formation) 작업 일지'!$G$61</definedName>
     <definedName name="line">'화성(Formation) 작업 일지'!$C$9</definedName>
+    <definedName name="lotMarkingDefectQuantity">'화성(Formation) 작업 일지'!$G$35</definedName>
+    <definedName name="lotMarkingDefectRate">'화성(Formation) 작업 일지'!$K$35</definedName>
+    <definedName name="lotMarkingDiscardQuantity">'화성(Formation) 작업 일지'!$I$35</definedName>
+    <definedName name="lotMarkingGoodQuantity">'화성(Formation) 작업 일지'!$E$35</definedName>
+    <definedName name="lotMarkingInputQuantity">'화성(Formation) 작업 일지'!$C$35</definedName>
+    <definedName name="lotRange">'화성(Formation) 작업 일지'!$C$47</definedName>
+    <definedName name="mainFormation1CellNumberRange">'화성(Formation) 작업 일지'!$C$43</definedName>
+    <definedName name="mainFormation1Quantity">'화성(Formation) 작업 일지'!$C$41</definedName>
+    <definedName name="mainFormation1UnitNumber">'화성(Formation) 작업 일지'!$C$39</definedName>
+    <definedName name="mainFormation2CellNumberRange">'화성(Formation) 작업 일지'!$E$43</definedName>
+    <definedName name="mainFormation2Quantity">'화성(Formation) 작업 일지'!$E$41</definedName>
+    <definedName name="mainFormation2UnitNumber">'화성(Formation) 작업 일지'!$E$39</definedName>
+    <definedName name="mainFormation3CellNumberRange">'화성(Formation) 작업 일지'!$G$43</definedName>
+    <definedName name="mainFormation3Quantity">'화성(Formation) 작업 일지'!$G$41</definedName>
+    <definedName name="mainFormation3UnitNumber">'화성(Formation) 작업 일지'!$G$39</definedName>
+    <definedName name="mainFormation4CellNumberRange">'화성(Formation) 작업 일지'!$I$43</definedName>
+    <definedName name="mainFormation4Quantity">'화성(Formation) 작업 일지'!$I$41</definedName>
+    <definedName name="mainFormation4UnitNumber">'화성(Formation) 작업 일지'!$I$39</definedName>
+    <definedName name="mainFormation5CellNumberRange">'화성(Formation) 작업 일지'!$K$43</definedName>
+    <definedName name="mainFormation5Quantity">'화성(Formation) 작업 일지'!$K$41</definedName>
+    <definedName name="mainFormation5UnitNumber">'화성(Formation) 작업 일지'!$K$39</definedName>
+    <definedName name="mainFormationAppliedCurrent">'화성(Formation) 작업 일지'!$I$56</definedName>
+    <definedName name="mainFormationDefectQuantity">'화성(Formation) 작업 일지'!$G$37</definedName>
+    <definedName name="mainFormationDefectRate">'화성(Formation) 작업 일지'!$K$37</definedName>
+    <definedName name="mainFormationDiscardQuantity">'화성(Formation) 작업 일지'!$I$37</definedName>
+    <definedName name="mainFormationGoodQuantity">'화성(Formation) 작업 일지'!$E$37</definedName>
+    <definedName name="mainFormationInputQuantity">'화성(Formation) 작업 일지'!$C$37</definedName>
+    <definedName name="mainFormationLowerVoltage">'화성(Formation) 작업 일지'!$E$56</definedName>
+    <definedName name="mainFormationTemperature">'화성(Formation) 작업 일지'!$K$56</definedName>
+    <definedName name="mainFormationUpperVoltage">'화성(Formation) 작업 일지'!$G$56</definedName>
+    <definedName name="mainFormationVoltageCondition">'화성(Formation) 작업 일지'!$C$56</definedName>
     <definedName name="manufactureDate">'화성(Formation) 작업 일지'!$C$7</definedName>
+    <definedName name="ocv1MeasurementEquipmentName">'화성(Formation) 작업 일지'!$C$58</definedName>
+    <definedName name="ocv1Quantity">'화성(Formation) 작업 일지'!$C$45</definedName>
+    <definedName name="ocv1VoltageSpec">'화성(Formation) 작업 일지'!$G$58</definedName>
     <definedName name="plant">'화성(Formation) 작업 일지'!$G$9</definedName>
+    <definedName name="preFormation1CellNumberRange">'화성(Formation) 작업 일지'!$C$25</definedName>
+    <definedName name="preFormation1Quantity">'화성(Formation) 작업 일지'!$C$23</definedName>
+    <definedName name="preFormation1UnitNumber">'화성(Formation) 작업 일지'!$C$21</definedName>
+    <definedName name="preFormation2CellNumberRange">'화성(Formation) 작업 일지'!$E$25</definedName>
+    <definedName name="preFormation2Quantity">'화성(Formation) 작업 일지'!$E$23</definedName>
+    <definedName name="preFormation2UnitNumber">'화성(Formation) 작업 일지'!$E$21</definedName>
+    <definedName name="preFormation3CellNumberRange">'화성(Formation) 작업 일지'!$G$25</definedName>
+    <definedName name="preFormation3Quantity">'화성(Formation) 작업 일지'!$G$23</definedName>
+    <definedName name="preFormation3UnitNumber">'화성(Formation) 작업 일지'!$G$21</definedName>
+    <definedName name="preFormation4CellNumberRange">'화성(Formation) 작업 일지'!$I$25</definedName>
+    <definedName name="preFormation4Quantity">'화성(Formation) 작업 일지'!$I$23</definedName>
+    <definedName name="preFormation4UnitNumber">'화성(Formation) 작업 일지'!$I$21</definedName>
+    <definedName name="preFormation5CellNumberRange">'화성(Formation) 작업 일지'!$K$25</definedName>
+    <definedName name="preFormation5Quantity">'화성(Formation) 작업 일지'!$K$23</definedName>
+    <definedName name="preFormation5UnitNumber">'화성(Formation) 작업 일지'!$K$21</definedName>
+    <definedName name="preFormationAppliedCurrent">'화성(Formation) 작업 일지'!$I$52</definedName>
+    <definedName name="preFormationDefectQuantity">'화성(Formation) 작업 일지'!$G$19</definedName>
+    <definedName name="preFormationDefectRate">'화성(Formation) 작업 일지'!$K$19</definedName>
+    <definedName name="preFormationDiscardQuantity">'화성(Formation) 작업 일지'!$I$19</definedName>
+    <definedName name="preFormationGoodQuantity">'화성(Formation) 작업 일지'!$E$19</definedName>
+    <definedName name="preFormationInputQuantity">'화성(Formation) 작업 일지'!$C$19</definedName>
+    <definedName name="preFormationLowerVoltage">'화성(Formation) 작업 일지'!$E$52</definedName>
+    <definedName name="preFormationTemperature">'화성(Formation) 작업 일지'!$K$52</definedName>
+    <definedName name="preFormationUpperVoltage">'화성(Formation) 작업 일지'!$G$52</definedName>
+    <definedName name="preFormationVoltageCondition">'화성(Formation) 작업 일지'!$C$52</definedName>
     <definedName name="productionId">'화성(Formation) 작업 일지'!$G$7</definedName>
     <definedName name="remark">'화성(Formation) 작업 일지'!$A$67</definedName>
     <definedName name="reviewer">'화성(Formation) 작업 일지'!$K$5</definedName>
     <definedName name="safety">'화성(Formation) 작업 일지'!$K$64</definedName>
+    <definedName name="sealingThickness1">'화성(Formation) 작업 일지'!$C$33</definedName>
+    <definedName name="sealingThickness2">'화성(Formation) 작업 일지'!$E$33</definedName>
+    <definedName name="sealingThickness3">'화성(Formation) 작업 일지'!$G$33</definedName>
+    <definedName name="sealingThickness4">'화성(Formation) 작업 일지'!$I$33</definedName>
+    <definedName name="sealingThickness5">'화성(Formation) 작업 일지'!$K$33</definedName>
     <definedName name="shift">'화성(Formation) 작업 일지'!$K$9</definedName>
     <definedName name="tempHumi">'화성(Formation) 작업 일지'!$C$64</definedName>
     <definedName name="worker">'화성(Formation) 작업 일지'!$K$7</definedName>
@@ -521,28 +609,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -553,11 +619,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -568,7 +634,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -579,7 +645,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -587,17 +653,17 @@
     </border>
     <border>
       <left/>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -609,7 +675,7 @@
     </border>
     <border>
       <left/>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -619,7 +685,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -631,7 +697,7 @@
     </border>
     <border>
       <left/>
-      <right style="double">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -641,23 +707,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="double">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -681,15 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -699,33 +778,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,19 +826,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -763,39 +857,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,72 +868,99 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,10 +979,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,13 +1333,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F2A99F-01C5-4BF5-8EAC-9D70A2547DB6}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39:L40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,17 +1347,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1282,752 +1369,752 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="28"/>
+      <c r="K9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="26" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="67" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="66"/>
+      <c r="E21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="66"/>
+      <c r="G21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69" t="s">
+      <c r="H21" s="66"/>
+      <c r="I21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69" t="s">
+      <c r="J21" s="66"/>
+      <c r="K21" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="70"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="72"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="74"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="72"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="76"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="60"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="78"/>
     </row>
-    <row r="27" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-    </row>
-    <row r="39" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="67" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="50"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69" t="s">
+      <c r="D39" s="66"/>
+      <c r="E39" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69" t="s">
+      <c r="F39" s="66"/>
+      <c r="G39" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69" t="s">
+      <c r="H39" s="66"/>
+      <c r="I39" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69" t="s">
+      <c r="J39" s="66"/>
+      <c r="K39" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="L39" s="70"/>
+      <c r="L39" s="68"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="72"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="74"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="72"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="72"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="76"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="74"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="60"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="77"/>
       <c r="L44" s="78"/>
     </row>
-    <row r="45" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -2038,18 +2125,18 @@
         <v>32</v>
       </c>
       <c r="D50" s="19"/>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="38"/>
       <c r="G50" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H50" s="19"/>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="23"/>
+      <c r="J50" s="38"/>
       <c r="K50" s="18" t="s">
         <v>36</v>
       </c>
@@ -2060,435 +2147,417 @@
       <c r="B51" s="21"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
       <c r="G51" s="20"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="20"/>
       <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="41"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="44" t="s">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="26" t="s">
+      <c r="F54" s="33"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="19"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F58" s="19"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="39"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="23"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="41"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="20"/>
       <c r="F59" s="21"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="41"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="10" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="10" t="s">
+      <c r="F61" s="17"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="10"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="11"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="16"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="10" t="s">
+      <c r="B64" s="17"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="10" t="s">
+      <c r="F64" s="17"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="50"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="51"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="53"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="53"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="53"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="11"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="53"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="53"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="56"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L73"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:H62"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="I50:J51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G47:H48"/>
-    <mergeCell ref="I47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A37:B44"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A19:B26"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
     <mergeCell ref="K31:L32"/>
     <mergeCell ref="K27:L28"/>
     <mergeCell ref="A29:B30"/>
@@ -2513,69 +2582,87 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:F28"/>
     <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A19:B26"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="A37:B44"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="G47:H48"/>
+    <mergeCell ref="I47:J48"/>
+    <mergeCell ref="K47:L48"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="I50:J51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:H62"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:L73"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:L65"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/common/templates/13.Formation.xlsx
+++ b/src/common/templates/13.Formation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD4A74-1C03-43AC-A326-D0F11B708CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0049BC2-D9DE-4574-BDCD-80533754C384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18000" yWindow="375" windowWidth="16275" windowHeight="14835" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
+    <workbookView xWindow="-18600" yWindow="510" windowWidth="21435" windowHeight="14940" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Formation) 작업 일지" sheetId="1" r:id="rId1"/>
@@ -78,8 +78,12 @@
     <definedName name="mainFormationUpperVoltage">'화성(Formation) 작업 일지'!$G$56</definedName>
     <definedName name="mainFormationVoltageCondition">'화성(Formation) 작업 일지'!$C$56</definedName>
     <definedName name="manufactureDate">'화성(Formation) 작업 일지'!$C$7</definedName>
+    <definedName name="ocv1DefectQuantity">'화성(Formation) 작업 일지'!$G$45</definedName>
+    <definedName name="ocv1DefectRate">'화성(Formation) 작업 일지'!$K$45</definedName>
+    <definedName name="ocv1DiscardQuantity">'화성(Formation) 작업 일지'!$I$45</definedName>
+    <definedName name="ocv1GoodQuantity">'화성(Formation) 작업 일지'!$E$45</definedName>
+    <definedName name="ocv1InputQuantity">'화성(Formation) 작업 일지'!$C$45</definedName>
     <definedName name="ocv1MeasurementEquipmentName">'화성(Formation) 작업 일지'!$C$58</definedName>
-    <definedName name="ocv1Quantity">'화성(Formation) 작업 일지'!$C$45</definedName>
     <definedName name="ocv1VoltageSpec">'화성(Formation) 작업 일지'!$G$58</definedName>
     <definedName name="plant">'화성(Formation) 작업 일지'!$G$9</definedName>
     <definedName name="preFormation1CellNumberRange">'화성(Formation) 작업 일지'!$C$25</definedName>
@@ -759,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,6 +773,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +791,186 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -805,196 +998,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:L73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1347,17 +1354,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1369,1171 +1376,1233 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="28" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="28" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="28" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="28" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="63" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="63"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="62"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="37" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="36" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="65" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67" t="s">
+      <c r="H21" s="52"/>
+      <c r="I21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67" t="s">
+      <c r="J21" s="52"/>
+      <c r="K21" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="68"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="70"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="72"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="70"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="74"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="65" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67" t="s">
+      <c r="D39" s="52"/>
+      <c r="E39" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="67" t="s">
+      <c r="H39" s="52"/>
+      <c r="I39" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="66"/>
-      <c r="K39" s="67" t="s">
+      <c r="J39" s="52"/>
+      <c r="K39" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="L39" s="68"/>
+      <c r="L39" s="35"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="70"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="50"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="72"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="70"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="74"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="39"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="78"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="26"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="58"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="37" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="18" t="s">
+      <c r="F50" s="21"/>
+      <c r="G50" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="37" t="s">
+      <c r="H50" s="17"/>
+      <c r="I50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="38"/>
-      <c r="K50" s="18" t="s">
+      <c r="J50" s="21"/>
+      <c r="K50" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="19"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="21"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="25"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="62"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="36" t="s">
+      <c r="F54" s="63"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="36"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="60"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="25"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="62"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="18" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="23"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="60"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="25"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="62"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="5"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="17"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="16"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="17"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="5"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="71"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="74"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="11"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="73"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="74"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="11"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="73"/>
+      <c r="L70" s="74"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="11"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
+      <c r="K71" s="73"/>
+      <c r="L71" s="74"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="11"/>
+      <c r="A72" s="72"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="74"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="14"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="76"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
+  <mergeCells count="158">
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:L73"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:H62"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="I50:J51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="C47:L48"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="A37:B44"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
     <mergeCell ref="I27:J28"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:D32"/>
@@ -2558,108 +2627,42 @@
     <mergeCell ref="I21:J22"/>
     <mergeCell ref="C25:D26"/>
     <mergeCell ref="E25:F26"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A37:B44"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G47:H48"/>
-    <mergeCell ref="I47:J48"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="I50:J51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:H62"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L73"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/common/templates/13.Formation.xlsx
+++ b/src/common/templates/13.Formation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B05C2-2071-43B4-9580-54CDBB87EB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E1307-8711-46B9-886E-9B83D4449E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="135" windowWidth="24210" windowHeight="14940" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
+    <workbookView xWindow="6285" yWindow="510" windowWidth="13200" windowHeight="14940" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Formation) 작업 일지" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>화성(Formation) 작업 일지</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -377,6 +377,22 @@
   </si>
   <si>
     <t>15호기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25°C / 50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상없음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -792,6 +808,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,25 +826,160 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,27 +992,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,136 +1003,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1363,8 +1379,8 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,17 +1389,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1395,1034 +1411,1044 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="19" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="19" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="19" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="69" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="28" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="27" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="27"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="61" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="48" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="48" t="s">
+      <c r="H21" s="52"/>
+      <c r="I21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="48" t="s">
+      <c r="J21" s="52"/>
+      <c r="K21" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="49"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="50"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="53"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="50"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="39"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="40"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="61" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="48" t="s">
+      <c r="D39" s="52"/>
+      <c r="E39" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="62"/>
-      <c r="G39" s="48" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="62"/>
-      <c r="I39" s="48" t="s">
+      <c r="H39" s="52"/>
+      <c r="I39" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="62"/>
-      <c r="K39" s="48" t="s">
+      <c r="J39" s="52"/>
+      <c r="K39" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="49"/>
+      <c r="L39" s="35"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="50"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="53"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="50"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="37"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="39"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="40"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="34"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="26"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="47"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="60"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="28" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="9" t="s">
+      <c r="F50" s="21"/>
+      <c r="G50" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="28" t="s">
+      <c r="H50" s="17"/>
+      <c r="I50" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="9" t="s">
+      <c r="J50" s="21"/>
+      <c r="K50" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="10"/>
+      <c r="L50" s="17"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="12"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="14"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="62"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="16"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26" t="s">
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="27" t="s">
+      <c r="F54" s="65"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="27"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="14"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="62"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="16"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="9" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="14"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="62"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="16"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="64"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="5"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="7"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="32"/>
+      <c r="I64" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="5"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="71" t="s">
@@ -2526,42 +2552,104 @@
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:L73"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:H62"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="I50:J51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="C47:L48"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="A37:B44"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:H28"/>
     <mergeCell ref="I27:J28"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:D32"/>
@@ -2586,104 +2674,42 @@
     <mergeCell ref="I21:J22"/>
     <mergeCell ref="C25:D26"/>
     <mergeCell ref="E25:F26"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A37:B44"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="C47:L48"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="I50:J51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:H62"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L73"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:L65"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/common/templates/13.Formation.xlsx
+++ b/src/common/templates/13.Formation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7E1307-8711-46B9-886E-9B83D4449E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50348CFE-8844-4B51-9398-72156DA7E53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="510" windowWidth="13200" windowHeight="14940" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
+    <workbookView xWindow="2085" yWindow="600" windowWidth="17385" windowHeight="14490" xr2:uid="{937EC8C4-16D6-4AFA-9FBD-1FBA4800754F}"/>
   </bookViews>
   <sheets>
     <sheet name="화성(Formation) 작업 일지" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -638,19 +638,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -789,6 +776,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,15 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -826,27 +828,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,139 +876,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,41 +918,140 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1377,10 +1391,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1389,17 +1403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,1221 +1425,1213 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="28"/>
+      <c r="K9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="75"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="68"/>
+      <c r="E21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="34" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="34" t="s">
+      <c r="H21" s="68"/>
+      <c r="I21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="34" t="s">
+      <c r="J21" s="68"/>
+      <c r="K21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="56"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="59"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="56"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="29"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="30"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="51" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="60"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="60"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="34" t="s">
+      <c r="D39" s="68"/>
+      <c r="E39" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="34" t="s">
+      <c r="F39" s="68"/>
+      <c r="G39" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="34" t="s">
+      <c r="H39" s="68"/>
+      <c r="I39" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="34" t="s">
+      <c r="J39" s="68"/>
+      <c r="K39" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="35"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="29"/>
-    </row>
-    <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="30"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="L39" s="55"/>
+      <c r="M39" s="80"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="60"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="80"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="60"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="80"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="60"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="80"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="60"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="80"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="39"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="80"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="26"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="60"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="42"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="20" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="16" t="s">
+      <c r="F50" s="38"/>
+      <c r="G50" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="20" t="s">
+      <c r="H50" s="19"/>
+      <c r="I50" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="16" t="s">
+      <c r="J50" s="38"/>
+      <c r="K50" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="17"/>
+      <c r="L50" s="19"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="19"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="62"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="64"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="65" t="s">
+      <c r="A54" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67" t="s">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="65"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="24" t="s">
+      <c r="F54" s="33"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="24"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="62"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="64"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="16" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="62"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="23"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="64"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="70" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="9" t="s">
+      <c r="F61" s="17"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="70" t="s">
+      <c r="J61" s="17"/>
+      <c r="K61" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L61" s="32"/>
+      <c r="L61" s="16"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="32" t="s">
+      <c r="B64" s="17"/>
+      <c r="C64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="16"/>
+      <c r="E64" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="32" t="s">
+      <c r="F64" s="17"/>
+      <c r="G64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="9" t="s">
+      <c r="H64" s="16"/>
+      <c r="I64" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="32" t="s">
+      <c r="J64" s="17"/>
+      <c r="K64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L64" s="32"/>
+      <c r="L64" s="16"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="73"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="74"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="76"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="74"/>
-      <c r="B69" s="75"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="76"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="74"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="76"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="11"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="74"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="76"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="74"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="76"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="79"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A67:L73"/>
-    <mergeCell ref="K61:L62"/>
-    <mergeCell ref="A63:L63"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:F65"/>
-    <mergeCell ref="G64:H65"/>
-    <mergeCell ref="I64:J65"/>
-    <mergeCell ref="K64:L65"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:L59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:H62"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="G56:H57"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="I54:J55"/>
-    <mergeCell ref="K54:L55"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="I50:J51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="K43:L44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:H46"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="C47:L48"/>
-    <mergeCell ref="K39:L40"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J42"/>
-    <mergeCell ref="K41:L42"/>
-    <mergeCell ref="A37:B44"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="K37:L38"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:H40"/>
-    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:L13"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A19:B26"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
     <mergeCell ref="K31:L32"/>
     <mergeCell ref="K27:L28"/>
     <mergeCell ref="A29:B30"/>
@@ -2650,66 +2656,80 @@
     <mergeCell ref="C27:D28"/>
     <mergeCell ref="E27:F28"/>
     <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A19:B26"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K39:L40"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J42"/>
+    <mergeCell ref="K41:L42"/>
+    <mergeCell ref="A37:B44"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="K37:L38"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:H40"/>
+    <mergeCell ref="I39:J40"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="K43:L44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="C47:L48"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="I50:J51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="G56:H57"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="K56:L57"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="I54:J55"/>
+    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:L59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:H62"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:L73"/>
+    <mergeCell ref="K61:L62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="G64:H65"/>
+    <mergeCell ref="I64:J65"/>
+    <mergeCell ref="K64:L65"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
